--- a/fupa documentos finales/Sprint2/Resumen de pruebas.xlsx
+++ b/fupa documentos finales/Sprint2/Resumen de pruebas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="10515" windowHeight="5190"/>
@@ -141,17 +141,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,6 +164,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -182,13 +182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,33 +222,90 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1162050" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -322,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -356,6 +414,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,15 +590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -549,275 +609,277 @@
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" s="5" customFormat="1" ht="75">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="60">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>41467</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>41467</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="45">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>41498</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" ht="45">
-      <c r="B9" s="3" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>41529</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>41559</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="25.5">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="60">
-      <c r="B12" s="3" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>41498</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="45">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>41498</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="45">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>41590</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
